--- a/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary_04122024.xlsx
+++ b/Integration Services Project2/notes/STR(DM-Transaction)-Appendix B - Test and PR Summary_04122024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NEL\DM-UAT\SBST\SBST_27112024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201120D9-7C66-4F75-AFAD-46BE43D16C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6550"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -31,9 +32,9 @@
     <definedName name="TestVer" localSheetId="2">#REF!</definedName>
     <definedName name="TestVer">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="90" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,12 +45,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wahyu Yoga Pratama</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0" shapeId="0">
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="445">
   <si>
     <t>Test Status</t>
   </si>
@@ -905,10 +906,6 @@
   <si>
     <t>How to create service receipts? SERVRECTRANS
 Notes: The transformation to get service items is quite messy! Should probably just do a lookup to migrated item table</t>
-  </si>
-  <si>
-    <t>Need to create new pkg!
-TransType='PCOUNTADJ'</t>
   </si>
   <si>
     <t>Item with STE_MIGRATIONID=84190 has description truncated</t>
@@ -2182,11 +2179,28 @@
   <si>
     <t xml:space="preserve">Issued Value from Issues is not mapped to any field in maximo. For example: Item ISCS/LAN/FO/03 issued value is 600.00. ISS_ITEMS.ISS_VAL. ISS_ITEMS.ISS_QTY should be the Issued Quantity and be displayed in the INVTRANS. </t>
   </si>
+  <si>
+    <t>Need to change the transformation logic.
+&gt;&gt; DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mentioned records are not currently migrated because they don’t have parent record in table COSWIN.COUNT_
+&gt;&gt; FIXED
+</t>
+  </si>
+  <si>
+    <t>Need to create new custom column: INVENTORY.STE_DRAWINGNO (VARCHAR(100))
+Need to create new custom column: INVENTORY.STE_REMARK (LONG DESCRIPTION)</t>
+  </si>
+  <si>
+    <t>ISS_ITEMS.ISS_VAL is mapped to MATUSETRANS.ACTUALCOST
+&gt;&gt; DONE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2544,7 +2558,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2725,28 +2739,16 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,11 +2759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2780,23 +2777,34 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,2014 +2822,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <border>
         <left style="thin">
@@ -5097,9 +3104,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5169,7 +3174,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5233,9 +3237,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5293,7 +3295,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5526,7 +3527,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Record History"/>
@@ -5629,7 +3630,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Drop down list"/>
@@ -5642,7 +3643,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sidharth Kaushik" refreshedDate="45630.740895833333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="75">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sidharth Kaushik" refreshedDate="45630.740895833333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="75" xr:uid="{00000000-000A-0000-FFFF-FFFF5A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:J76" sheet="PR Summary"/>
   </cacheSource>
@@ -6064,7 +4065,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D14:I16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -6161,6 +4162,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6452,40 +4456,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6498,50 +4502,50 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="50" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>406</v>
-      </c>
       <c r="B7" s="33" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="B9" s="84">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="77">
         <v>45630</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6550,8 +4554,8 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="43"/>
-      <c r="E14" s="79" t="s">
-        <v>399</v>
+      <c r="E14" s="75" t="s">
+        <v>398</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -6561,38 +4565,38 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="43"/>
       <c r="E15" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="E16" s="80">
+        <v>399</v>
+      </c>
+      <c r="E16" s="43">
         <v>14</v>
       </c>
-      <c r="F16" s="80">
+      <c r="F16" s="43">
         <v>9</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="43">
         <v>46</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="43">
         <v>6</v>
       </c>
-      <c r="I16" s="80">
+      <c r="I16" s="43">
         <v>75</v>
       </c>
     </row>
@@ -6603,57 +4607,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A25" zoomScale="64" zoomScaleNormal="70" zoomScalePageLayoutView="64" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
-    <col min="5" max="6" width="12.90625" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="49.90625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="49.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
-      <c r="C3" s="96" t="s">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
@@ -6688,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>63</v>
       </c>
@@ -6709,7 +4713,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>65</v>
       </c>
@@ -6730,7 +4734,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>67</v>
       </c>
@@ -6751,7 +4755,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>69</v>
       </c>
@@ -6772,7 +4776,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>71</v>
       </c>
@@ -6793,7 +4797,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>73</v>
       </c>
@@ -6814,7 +4818,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" s="19" customFormat="1" ht="322.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="19" customFormat="1" ht="318" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>75</v>
       </c>
@@ -6837,7 +4841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>77</v>
       </c>
@@ -6858,7 +4862,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" ht="240.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="19" customFormat="1" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>79</v>
       </c>
@@ -6879,7 +4883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>81</v>
       </c>
@@ -6896,7 +4900,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" ht="238.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="19" customFormat="1" ht="235.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>83</v>
       </c>
@@ -6942,7 +4946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="19" customFormat="1" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="19" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>87</v>
       </c>
@@ -6963,7 +4967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="19" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>89</v>
       </c>
@@ -6980,7 +4984,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>91</v>
       </c>
@@ -6999,7 +5003,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>93</v>
       </c>
@@ -7022,7 +5026,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="19" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>95</v>
       </c>
@@ -7039,7 +5043,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -7052,7 +5056,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -7078,7 +5082,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -7093,7 +5097,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -7111,7 +5115,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -7129,7 +5133,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -7147,7 +5151,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -7165,7 +5169,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -7183,7 +5187,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -7201,7 +5205,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -7219,7 +5223,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
@@ -7237,7 +5241,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="19" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
@@ -7440,7 +5444,7 @@
       <c r="K47" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K21"/>
+  <autoFilter ref="A4:K21" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="C3:F3"/>
@@ -7448,7 +5452,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:F23 C20:D20 C5:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:F23 C20:D20 C5:F19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"✔,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7466,43 +5470,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA172"/>
   <sheetViews>
-    <sheetView topLeftCell="F70" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="13" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="AA72" sqref="AA72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="64" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="50.54296875" style="64" customWidth="1"/>
-    <col min="10" max="10" width="43" style="73" customWidth="1"/>
-    <col min="11" max="11" width="32.453125" style="73" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" style="64" customWidth="1"/>
-    <col min="13" max="13" width="37.54296875" style="31" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="36.36328125" style="31" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="30.08984375" style="31" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="17.90625" style="60" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="64" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="50.5546875" style="64" customWidth="1"/>
+    <col min="10" max="10" width="43" style="64" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="37.5546875" style="31" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="36.33203125" style="31" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" style="31" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" style="60" hidden="1" customWidth="1"/>
     <col min="17" max="18" width="16" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.08984375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.54296875" customWidth="1"/>
-    <col min="25" max="25" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5546875" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="50.08984375" style="31" customWidth="1"/>
+    <col min="27" max="27" width="50.109375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -7531,10 +5540,10 @@
         <v>49</v>
       </c>
       <c r="J1" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>381</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>382</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>50</v>
@@ -7549,13 +5558,13 @@
         <v>210</v>
       </c>
       <c r="P1" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>370</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>371</v>
       </c>
       <c r="S1" s="30" t="s">
         <v>53</v>
@@ -7583,7 +5592,7 @@
       </c>
       <c r="AA1" s="30"/>
     </row>
-    <row r="2" spans="1:27" ht="142.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="142.19999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="37"/>
@@ -7594,31 +5603,31 @@
       <c r="H2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="101" t="s">
-        <v>410</v>
-      </c>
-      <c r="J2" s="105" t="s">
+      <c r="I2" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="87"/>
       <c r="L2" s="32" t="s">
         <v>120</v>
       </c>
       <c r="M2" s="35"/>
       <c r="N2" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>206</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="35"/>
@@ -7629,10 +5638,10 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="35"/>
       <c r="AA2" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -7643,29 +5652,29 @@
       <c r="H3" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="102"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="32" t="s">
         <v>120</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>207</v>
       </c>
       <c r="P3" s="57"/>
       <c r="Q3" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="35"/>
@@ -7676,10 +5685,10 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
@@ -7690,13 +5699,13 @@
       <c r="H4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="102"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="32" t="s">
         <v>120</v>
       </c>
@@ -7709,10 +5718,10 @@
       </c>
       <c r="P4" s="57"/>
       <c r="Q4" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S4" s="33"/>
       <c r="T4" s="35"/>
@@ -7723,10 +5732,10 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
@@ -7737,13 +5746,13 @@
       <c r="H5" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="102"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="32" t="s">
         <v>120</v>
       </c>
@@ -7758,10 +5767,10 @@
         <v>309</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="35"/>
@@ -7774,10 +5783,10 @@
       <c r="Y5" s="33"/>
       <c r="Z5" s="35"/>
       <c r="AA5" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="98" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
@@ -7788,14 +5797,14 @@
       <c r="H6" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="105" t="s">
-        <v>431</v>
-      </c>
-      <c r="J6" s="105" t="s">
-        <v>373</v>
-      </c>
-      <c r="K6" s="102" t="s">
-        <v>425</v>
+      <c r="I6" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>120</v>
@@ -7816,7 +5825,7 @@
       <c r="Z6" s="35"/>
       <c r="AA6" s="33"/>
     </row>
-    <row r="7" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
@@ -7827,13 +5836,13 @@
       <c r="H7" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="102"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="32" t="s">
         <v>120</v>
       </c>
@@ -7846,10 +5855,10 @@
       </c>
       <c r="P7" s="57"/>
       <c r="Q7" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S7" s="33"/>
       <c r="T7" s="35"/>
@@ -7862,10 +5871,10 @@
       <c r="Y7" s="33"/>
       <c r="Z7" s="35"/>
       <c r="AA7" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34"/>
@@ -7876,13 +5885,13 @@
       <c r="H8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="102"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="32" t="s">
         <v>120</v>
       </c>
@@ -7894,13 +5903,13 @@
         <v>134</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S8" s="33"/>
       <c r="T8" s="35"/>
@@ -7911,10 +5920,10 @@
       <c r="Y8" s="33"/>
       <c r="Z8" s="35"/>
       <c r="AA8" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34"/>
@@ -7925,14 +5934,14 @@
       <c r="H9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="102" t="s">
-        <v>396</v>
+      <c r="K9" s="87" t="s">
+        <v>395</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>120</v>
@@ -7945,13 +5954,13 @@
         <v>135</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="35"/>
@@ -7962,10 +5971,10 @@
       <c r="Y9" s="33"/>
       <c r="Z9" s="35"/>
       <c r="AA9" s="33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34"/>
@@ -7976,14 +5985,14 @@
       <c r="H10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="101" t="s">
+      <c r="I10" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="102" t="s">
-        <v>396</v>
+      <c r="K10" s="87" t="s">
+        <v>395</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>120</v>
@@ -7996,13 +6005,13 @@
         <v>136</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="35"/>
@@ -8016,7 +6025,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -8030,10 +6039,10 @@
       <c r="I11" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="74"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="32" t="s">
         <v>120</v>
       </c>
@@ -8046,10 +6055,10 @@
       </c>
       <c r="P11" s="67"/>
       <c r="Q11" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="R11" s="48" t="s">
         <v>372</v>
-      </c>
-      <c r="R11" s="48" t="s">
-        <v>373</v>
       </c>
       <c r="S11" s="44"/>
       <c r="T11" s="43"/>
@@ -8060,10 +6069,10 @@
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
       <c r="AA11" s="48" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -8074,13 +6083,13 @@
       <c r="H12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="101" t="s">
+      <c r="I12" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="32" t="s">
         <v>120</v>
       </c>
@@ -8092,13 +6101,13 @@
         <v>138</v>
       </c>
       <c r="P12" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="35"/>
@@ -8111,10 +6120,10 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -8125,14 +6134,14 @@
       <c r="H13" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="101" t="s">
+      <c r="I13" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="102" t="s">
-        <v>433</v>
+      <c r="K13" s="87" t="s">
+        <v>432</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>120</v>
@@ -8145,13 +6154,13 @@
         <v>139</v>
       </c>
       <c r="P13" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="35"/>
@@ -8164,10 +6173,10 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="112.5" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -8178,16 +6187,16 @@
         <v>35</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="I14" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="87" t="s">
         <v>434</v>
-      </c>
-      <c r="J14" s="105" t="s">
-        <v>383</v>
-      </c>
-      <c r="K14" s="102" t="s">
-        <v>435</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>120</v>
@@ -8208,9 +6217,11 @@
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="35"/>
-      <c r="AA14" s="33"/>
-    </row>
-    <row r="15" spans="1:27" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="289.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -8221,13 +6232,13 @@
       <c r="H15" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="102"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="32" t="s">
         <v>120</v>
       </c>
@@ -8239,13 +6250,13 @@
         <v>140</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="35"/>
@@ -8257,31 +6268,31 @@
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="35"/>
-      <c r="AA15" s="68" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="78" customFormat="1" ht="300" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="AA15" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="74" customFormat="1" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72" t="s">
         <v>121</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="K16" s="87" t="s">
-        <v>412</v>
-      </c>
-      <c r="L16" s="77" t="s">
+      <c r="J16" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="K16" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="L16" s="73" t="s">
         <v>120</v>
       </c>
       <c r="M16" s="35"/>
@@ -8293,46 +6304,46 @@
       </c>
       <c r="P16" s="57"/>
       <c r="Q16" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S16" s="48"/>
-      <c r="T16" s="88"/>
+      <c r="T16" s="81"/>
       <c r="U16" s="49" t="s">
         <v>202</v>
       </c>
       <c r="V16" s="48"/>
-      <c r="W16" s="88"/>
+      <c r="W16" s="81"/>
       <c r="X16" s="48"/>
       <c r="Y16" s="48"/>
-      <c r="Z16" s="88"/>
+      <c r="Z16" s="81"/>
       <c r="AA16" s="48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" s="78" customFormat="1" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="74" customFormat="1" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
       <c r="B17" s="48"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72" t="s">
         <v>121</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>123</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="K17" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="L17" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="L17" s="73" t="s">
         <v>120</v>
       </c>
       <c r="M17" s="35"/>
@@ -8344,26 +6355,26 @@
       </c>
       <c r="P17" s="57"/>
       <c r="Q17" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S17" s="48"/>
-      <c r="T17" s="88"/>
+      <c r="T17" s="81"/>
       <c r="U17" s="49" t="s">
         <v>202</v>
       </c>
       <c r="V17" s="48"/>
-      <c r="W17" s="88"/>
+      <c r="W17" s="81"/>
       <c r="X17" s="48"/>
       <c r="Y17" s="48"/>
-      <c r="Z17" s="88"/>
+      <c r="Z17" s="81"/>
       <c r="AA17" s="48" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -8377,10 +6388,10 @@
       <c r="I18" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="68"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="32" t="s">
         <v>120</v>
       </c>
@@ -8393,10 +6404,10 @@
       </c>
       <c r="P18" s="57"/>
       <c r="Q18" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="35"/>
@@ -8407,10 +6418,10 @@
       <c r="Y18" s="33"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="48" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="37"/>
@@ -8424,10 +6435,10 @@
       <c r="I19" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="32" t="s">
         <v>120</v>
       </c>
@@ -8440,10 +6451,10 @@
       </c>
       <c r="P19" s="57"/>
       <c r="Q19" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="35"/>
@@ -8454,10 +6465,10 @@
       <c r="Y19" s="33"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="100" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -8471,11 +6482,11 @@
       <c r="I20" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="68" t="s">
-        <v>384</v>
+      <c r="K20" s="33" t="s">
+        <v>383</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>120</v>
@@ -8489,10 +6500,10 @@
       </c>
       <c r="P20" s="58"/>
       <c r="Q20" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R20" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S20" s="44"/>
       <c r="T20" s="43"/>
@@ -8503,10 +6514,10 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -8520,11 +6531,11 @@
       <c r="I21" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="75" t="s">
-        <v>419</v>
+      <c r="K21" s="71" t="s">
+        <v>418</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>120</v>
@@ -8540,10 +6551,10 @@
         <v>230</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S21" s="44"/>
       <c r="T21" s="43"/>
@@ -8556,10 +6567,10 @@
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="23.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -8573,10 +6584,10 @@
       <c r="I22" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="32" t="s">
         <v>120</v>
       </c>
@@ -8589,10 +6600,10 @@
       </c>
       <c r="P22" s="57"/>
       <c r="Q22" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S22" s="44"/>
       <c r="T22" s="43"/>
@@ -8605,10 +6616,10 @@
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -8622,10 +6633,10 @@
       <c r="I23" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="32" t="s">
         <v>120</v>
       </c>
@@ -8638,10 +6649,10 @@
       </c>
       <c r="P23" s="57"/>
       <c r="Q23" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S23" s="33"/>
       <c r="T23" s="35"/>
@@ -8652,10 +6663,10 @@
       <c r="Y23" s="33"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -8669,10 +6680,10 @@
       <c r="I24" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="K24" s="68"/>
+      <c r="J24" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K24" s="33"/>
       <c r="L24" s="32" t="s">
         <v>120</v>
       </c>
@@ -8685,10 +6696,10 @@
       </c>
       <c r="P24" s="57"/>
       <c r="Q24" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S24" s="44"/>
       <c r="T24" s="43"/>
@@ -8700,7 +6711,7 @@
       <c r="Z24" s="43"/>
       <c r="AA24" s="33"/>
     </row>
-    <row r="25" spans="1:27" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -8714,10 +6725,10 @@
       <c r="I25" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="68"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="32" t="s">
         <v>120</v>
       </c>
@@ -8730,10 +6741,10 @@
       </c>
       <c r="P25" s="57"/>
       <c r="Q25" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S25" s="44"/>
       <c r="T25" s="43"/>
@@ -8744,10 +6755,10 @@
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
       <c r="AA25" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" s="78" customFormat="1" ht="100" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="74" customFormat="1" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -8755,19 +6766,19 @@
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="72" t="s">
         <v>73</v>
       </c>
       <c r="I26" s="48" t="s">
         <v>149</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="K26" s="86" t="s">
-        <v>413</v>
-      </c>
-      <c r="L26" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="L26" s="73" t="s">
         <v>120</v>
       </c>
       <c r="M26" s="33"/>
@@ -8779,10 +6790,10 @@
       </c>
       <c r="P26" s="57"/>
       <c r="Q26" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S26" s="50"/>
       <c r="T26" s="51"/>
@@ -8793,10 +6804,10 @@
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
       <c r="AA26" s="48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="25" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -8810,10 +6821,10 @@
       <c r="I27" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="68"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="32" t="s">
         <v>120</v>
       </c>
@@ -8825,11 +6836,11 @@
         <v>152</v>
       </c>
       <c r="P27" s="66"/>
-      <c r="Q27" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="R27" s="68" t="s">
-        <v>257</v>
+      <c r="Q27" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>256</v>
       </c>
       <c r="S27" s="44"/>
       <c r="T27" s="43"/>
@@ -8842,10 +6853,10 @@
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
       <c r="AA27" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -8857,13 +6868,13 @@
         <v>73</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="J28" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="68" t="s">
-        <v>420</v>
+      <c r="K28" s="33" t="s">
+        <v>419</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>120</v>
@@ -8872,8 +6883,8 @@
       <c r="N28" s="33"/>
       <c r="O28" s="33"/>
       <c r="P28" s="66"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="44"/>
       <c r="T28" s="43"/>
       <c r="U28" s="51"/>
@@ -8884,7 +6895,7 @@
       <c r="Z28" s="43"/>
       <c r="AA28" s="33"/>
     </row>
-    <row r="29" spans="1:27" ht="210.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="210.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -8898,10 +6909,10 @@
       <c r="I29" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="68"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="32" t="s">
         <v>120</v>
       </c>
@@ -8914,10 +6925,10 @@
       </c>
       <c r="P29" s="57"/>
       <c r="Q29" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S29" s="44"/>
       <c r="T29" s="43"/>
@@ -8928,10 +6939,10 @@
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
       <c r="AA29" s="33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="100" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -8945,10 +6956,10 @@
       <c r="I30" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="68"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="32" t="s">
         <v>120</v>
       </c>
@@ -8961,10 +6972,10 @@
       </c>
       <c r="P30" s="57"/>
       <c r="Q30" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S30" s="44"/>
       <c r="T30" s="43"/>
@@ -8978,7 +6989,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="237.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -8992,11 +7003,11 @@
       <c r="I31" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="K31" s="75" t="s">
-        <v>421</v>
+      <c r="J31" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="K31" s="71" t="s">
+        <v>420</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>120</v>
@@ -9010,10 +7021,10 @@
       </c>
       <c r="P31" s="57"/>
       <c r="Q31" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S31" s="44"/>
       <c r="T31" s="43"/>
@@ -9026,10 +7037,10 @@
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
       <c r="AA31" s="33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -9043,11 +7054,11 @@
       <c r="I32" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="68" t="s">
+      <c r="J32" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="74" t="s">
-        <v>415</v>
+      <c r="K32" s="70" t="s">
+        <v>414</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>120</v>
@@ -9061,10 +7072,10 @@
       </c>
       <c r="P32" s="57"/>
       <c r="Q32" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R32" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S32" s="44"/>
       <c r="T32" s="43"/>
@@ -9075,10 +7086,10 @@
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
       <c r="AA32" s="48" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="350" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="382.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -9092,11 +7103,11 @@
       <c r="I33" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="J33" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="K33" s="75" t="s">
-        <v>422</v>
+      <c r="J33" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>421</v>
       </c>
       <c r="L33" s="32" t="s">
         <v>120</v>
@@ -9110,10 +7121,10 @@
       </c>
       <c r="P33" s="57"/>
       <c r="Q33" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S33" s="44"/>
       <c r="T33" s="43"/>
@@ -9124,10 +7135,10 @@
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
       <c r="AA33" s="33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="50" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -9139,13 +7150,13 @@
         <v>69</v>
       </c>
       <c r="I34" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>416</v>
-      </c>
-      <c r="J34" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="K34" s="75" t="s">
-        <v>417</v>
       </c>
       <c r="L34" s="32"/>
       <c r="M34" s="33"/>
@@ -9164,7 +7175,7 @@
       <c r="Z34" s="43"/>
       <c r="AA34" s="33"/>
     </row>
-    <row r="35" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -9178,10 +7189,10 @@
       <c r="I35" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="68"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="32" t="s">
         <v>120</v>
       </c>
@@ -9194,10 +7205,10 @@
       </c>
       <c r="P35" s="57"/>
       <c r="Q35" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R35" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S35" s="44"/>
       <c r="T35" s="43"/>
@@ -9208,10 +7219,10 @@
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
       <c r="AA35" s="48" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -9225,11 +7236,11 @@
       <c r="I36" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="J36" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="K36" s="68" t="s">
-        <v>423</v>
+      <c r="J36" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>422</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>120</v>
@@ -9243,10 +7254,10 @@
       </c>
       <c r="P36" s="57"/>
       <c r="Q36" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S36" s="44"/>
       <c r="T36" s="43"/>
@@ -9260,7 +7271,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="61.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="61.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -9274,11 +7285,11 @@
       <c r="I37" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="J37" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="K37" s="68" t="s">
-        <v>388</v>
+      <c r="J37" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>387</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>120</v>
@@ -9292,10 +7303,10 @@
       </c>
       <c r="P37" s="57"/>
       <c r="Q37" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S37" s="44"/>
       <c r="T37" s="43"/>
@@ -9306,10 +7317,10 @@
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -9323,11 +7334,11 @@
       <c r="I38" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="68" t="s">
+      <c r="J38" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="75" t="s">
-        <v>391</v>
+      <c r="K38" s="71" t="s">
+        <v>390</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>120</v>
@@ -9341,10 +7352,10 @@
       </c>
       <c r="P38" s="57"/>
       <c r="Q38" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R38" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S38" s="44"/>
       <c r="T38" s="43"/>
@@ -9355,10 +7366,10 @@
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
       <c r="AA38" s="33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -9372,11 +7383,11 @@
       <c r="I39" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="J39" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="K39" s="75" t="s">
-        <v>389</v>
+      <c r="J39" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>388</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>120</v>
@@ -9390,10 +7401,10 @@
       </c>
       <c r="P39" s="57"/>
       <c r="Q39" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S39" s="44"/>
       <c r="T39" s="43"/>
@@ -9407,7 +7418,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -9421,10 +7432,10 @@
       <c r="I40" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="J40" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="K40" s="68"/>
+      <c r="J40" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" s="33"/>
       <c r="L40" s="32" t="s">
         <v>120</v>
       </c>
@@ -9437,10 +7448,10 @@
       </c>
       <c r="P40" s="57"/>
       <c r="Q40" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R40" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S40" s="44"/>
       <c r="T40" s="43"/>
@@ -9454,7 +7465,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -9468,11 +7479,11 @@
       <c r="I41" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="J41" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="K41" s="75" t="s">
-        <v>430</v>
+      <c r="J41" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="K41" s="71" t="s">
+        <v>429</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>120</v>
@@ -9486,10 +7497,10 @@
       </c>
       <c r="P41" s="57"/>
       <c r="Q41" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R41" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S41" s="44"/>
       <c r="T41" s="43"/>
@@ -9500,10 +7511,10 @@
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
       <c r="AA41" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -9517,10 +7528,10 @@
       <c r="I42" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="J42" s="68" t="s">
+      <c r="J42" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="68"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="32" t="s">
         <v>120</v>
       </c>
@@ -9533,10 +7544,10 @@
       </c>
       <c r="P42" s="57"/>
       <c r="Q42" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R42" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S42" s="44"/>
       <c r="T42" s="43"/>
@@ -9550,7 +7561,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -9558,19 +7569,19 @@
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
       <c r="G43" s="43"/>
-      <c r="H43" s="76" t="s">
+      <c r="H43" s="72" t="s">
         <v>77</v>
       </c>
       <c r="I43" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="K43" s="86" t="s">
-        <v>418</v>
-      </c>
-      <c r="L43" s="77"/>
+        <v>372</v>
+      </c>
+      <c r="K43" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="L43" s="73"/>
       <c r="M43" s="33"/>
       <c r="N43" s="33"/>
       <c r="O43" s="33"/>
@@ -9587,7 +7598,7 @@
       <c r="Z43" s="43"/>
       <c r="AA43" s="33"/>
     </row>
-    <row r="44" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -9601,11 +7612,11 @@
       <c r="I44" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="J44" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="K44" s="75" t="s">
-        <v>392</v>
+      <c r="J44" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" s="71" t="s">
+        <v>391</v>
       </c>
       <c r="L44" s="32" t="s">
         <v>120</v>
@@ -9619,10 +7630,10 @@
       </c>
       <c r="P44" s="57"/>
       <c r="Q44" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R44" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S44" s="44"/>
       <c r="T44" s="43"/>
@@ -9634,7 +7645,7 @@
       <c r="Z44" s="43"/>
       <c r="AA44" s="33"/>
     </row>
-    <row r="45" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -9648,10 +7659,10 @@
       <c r="I45" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="J45" s="68" t="s">
+      <c r="J45" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="68"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="32" t="s">
         <v>120</v>
       </c>
@@ -9664,10 +7675,10 @@
       </c>
       <c r="P45" s="57"/>
       <c r="Q45" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R45" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S45" s="44"/>
       <c r="T45" s="43"/>
@@ -9683,7 +7694,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -9697,11 +7708,11 @@
       <c r="I46" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="J46" s="68" t="s">
+      <c r="J46" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K46" s="75" t="s">
-        <v>393</v>
+      <c r="K46" s="71" t="s">
+        <v>392</v>
       </c>
       <c r="L46" s="32" t="s">
         <v>120</v>
@@ -9715,10 +7726,10 @@
       </c>
       <c r="P46" s="57"/>
       <c r="Q46" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R46" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S46" s="44"/>
       <c r="T46" s="43"/>
@@ -9732,7 +7743,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -9746,10 +7757,10 @@
       <c r="I47" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="J47" s="68" t="s">
+      <c r="J47" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K47" s="68"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="32" t="s">
         <v>120</v>
       </c>
@@ -9762,10 +7773,10 @@
       </c>
       <c r="P47" s="57"/>
       <c r="Q47" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R47" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S47" s="44"/>
       <c r="T47" s="43"/>
@@ -9776,10 +7787,10 @@
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
       <c r="AA47" s="48" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="71.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -9793,11 +7804,11 @@
       <c r="I48" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="J48" s="68" t="s">
+      <c r="J48" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="89" t="s">
-        <v>426</v>
+      <c r="K48" s="82" t="s">
+        <v>425</v>
       </c>
       <c r="L48" s="32" t="s">
         <v>120</v>
@@ -9811,10 +7822,10 @@
       </c>
       <c r="P48" s="57"/>
       <c r="Q48" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R48" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S48" s="44"/>
       <c r="T48" s="43"/>
@@ -9830,7 +7841,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="65.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -9844,10 +7855,10 @@
       <c r="I49" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="68" t="s">
+      <c r="J49" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K49" s="68"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="32" t="s">
         <v>120</v>
       </c>
@@ -9860,10 +7871,10 @@
       </c>
       <c r="P49" s="57"/>
       <c r="Q49" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R49" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S49" s="44"/>
       <c r="T49" s="43"/>
@@ -9877,7 +7888,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -9891,10 +7902,10 @@
       <c r="I50" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="J50" s="68" t="s">
+      <c r="J50" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K50" s="68"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="32" t="s">
         <v>120</v>
       </c>
@@ -9907,10 +7918,10 @@
       </c>
       <c r="P50" s="57"/>
       <c r="Q50" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R50" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S50" s="44"/>
       <c r="T50" s="43"/>
@@ -9921,10 +7932,10 @@
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="83" customHeight="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="82.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -9932,19 +7943,19 @@
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
-      <c r="H51" s="90" t="s">
+      <c r="H51" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I51" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="J51" s="68" t="s">
+      <c r="I51" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="94" t="s">
-        <v>428</v>
-      </c>
-      <c r="L51" s="92" t="s">
+      <c r="K51" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" s="83" t="s">
         <v>120</v>
       </c>
       <c r="M51" s="33"/>
@@ -9953,18 +7964,17 @@
       <c r="P51" s="57"/>
       <c r="Q51" s="48"/>
       <c r="R51" s="48"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="81"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="43"/>
       <c r="U51" s="43"/>
-      <c r="V51" s="81"/>
-      <c r="W51" s="81"/>
-      <c r="X51" s="81"/>
-      <c r="Y51" s="81"/>
-      <c r="Z51" s="81"/>
-      <c r="AA51" s="68"/>
-      <c r="AB51" s="93"/>
-    </row>
-    <row r="52" spans="1:28" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="33"/>
+    </row>
+    <row r="52" spans="1:27" ht="92.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -9975,13 +7985,13 @@
       <c r="H52" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I52" s="70" t="s">
+      <c r="I52" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="J52" s="105" t="s">
+      <c r="J52" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="71"/>
+      <c r="K52" s="69"/>
       <c r="L52" s="32" t="s">
         <v>120</v>
       </c>
@@ -9994,10 +8004,10 @@
       </c>
       <c r="P52" s="57"/>
       <c r="Q52" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R52" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S52" s="44"/>
       <c r="T52" s="43"/>
@@ -10010,10 +8020,10 @@
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="33" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="62.5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -10024,13 +8034,13 @@
       <c r="H53" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I53" s="101" t="s">
+      <c r="I53" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="J53" s="105" t="s">
+      <c r="J53" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="102"/>
+      <c r="K53" s="87"/>
       <c r="L53" s="32" t="s">
         <v>120</v>
       </c>
@@ -10043,10 +8053,10 @@
       </c>
       <c r="P53" s="57"/>
       <c r="Q53" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R53" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S53" s="44"/>
       <c r="T53" s="43"/>
@@ -10059,10 +8069,10 @@
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
       <c r="AA53" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="87.5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -10073,13 +8083,13 @@
       <c r="H54" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I54" s="101" t="s">
+      <c r="I54" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="J54" s="105" t="s">
+      <c r="J54" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K54" s="102"/>
+      <c r="K54" s="87"/>
       <c r="L54" s="32" t="s">
         <v>120</v>
       </c>
@@ -10092,10 +8102,10 @@
       </c>
       <c r="P54" s="57"/>
       <c r="Q54" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R54" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S54" s="44"/>
       <c r="T54" s="43"/>
@@ -10108,10 +8118,10 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
       <c r="AA54" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="46.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="46.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -10122,13 +8132,13 @@
       <c r="H55" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="101" t="s">
+      <c r="I55" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="J55" s="105" t="s">
+      <c r="J55" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="102"/>
+      <c r="K55" s="87"/>
       <c r="L55" s="32" t="s">
         <v>120</v>
       </c>
@@ -10141,10 +8151,10 @@
       </c>
       <c r="P55" s="57"/>
       <c r="Q55" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R55" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S55" s="44"/>
       <c r="T55" s="43"/>
@@ -10159,10 +8169,10 @@
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
       <c r="AA55" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="97.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="97.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -10173,13 +8183,13 @@
       <c r="H56" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I56" s="101" t="s">
+      <c r="I56" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="J56" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="K56" s="102"/>
+      <c r="J56" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K56" s="87"/>
       <c r="L56" s="32" t="s">
         <v>120</v>
       </c>
@@ -10192,10 +8202,10 @@
       </c>
       <c r="P56" s="57"/>
       <c r="Q56" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R56" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S56" s="44"/>
       <c r="T56" s="43"/>
@@ -10210,10 +8220,10 @@
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
       <c r="AA56" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="93.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="93.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -10224,13 +8234,13 @@
       <c r="H57" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I57" s="101" t="s">
+      <c r="I57" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="J57" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="K57" s="102"/>
+      <c r="J57" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" s="87"/>
       <c r="L57" s="32" t="s">
         <v>120</v>
       </c>
@@ -10243,10 +8253,10 @@
       </c>
       <c r="P57" s="57"/>
       <c r="Q57" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R57" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S57" s="44"/>
       <c r="T57" s="43"/>
@@ -10261,10 +8271,10 @@
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
       <c r="AA57" s="33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -10275,29 +8285,29 @@
       <c r="H58" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="101" t="s">
+      <c r="I58" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="J58" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="K58" s="102"/>
+      <c r="J58" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" s="87"/>
       <c r="L58" s="32" t="s">
         <v>120</v>
       </c>
       <c r="M58" s="33"/>
       <c r="N58" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O58" s="33" t="s">
         <v>198</v>
       </c>
       <c r="P58" s="57"/>
       <c r="Q58" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R58" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S58" s="44"/>
       <c r="T58" s="43"/>
@@ -10312,10 +8322,10 @@
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
       <c r="AA58" s="48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="29" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -10326,13 +8336,13 @@
       <c r="H59" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I59" s="101" t="s">
+      <c r="I59" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="J59" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="K59" s="102"/>
+      <c r="J59" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K59" s="87"/>
       <c r="L59" s="32" t="s">
         <v>120</v>
       </c>
@@ -10345,10 +8355,10 @@
       </c>
       <c r="P59" s="53"/>
       <c r="Q59" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R59" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S59" s="44"/>
       <c r="T59" s="43"/>
@@ -10361,10 +8371,10 @@
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
       <c r="AA59" s="61" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="96.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="96.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -10375,13 +8385,13 @@
       <c r="H60" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I60" s="101" t="s">
+      <c r="I60" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="J60" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="K60" s="102"/>
+      <c r="J60" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K60" s="87"/>
       <c r="L60" s="32" t="s">
         <v>120</v>
       </c>
@@ -10394,10 +8404,10 @@
       </c>
       <c r="P60" s="57"/>
       <c r="Q60" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R60" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S60" s="44"/>
       <c r="T60" s="43"/>
@@ -10410,10 +8420,10 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
       <c r="AA60" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -10424,13 +8434,13 @@
       <c r="H61" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I61" s="101" t="s">
+      <c r="I61" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="J61" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="K61" s="102"/>
+      <c r="J61" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" s="87"/>
       <c r="L61" s="32" t="s">
         <v>120</v>
       </c>
@@ -10443,10 +8453,10 @@
       </c>
       <c r="P61" s="57"/>
       <c r="Q61" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R61" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S61" s="44"/>
       <c r="T61" s="43"/>
@@ -10459,10 +8469,10 @@
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
       <c r="AA61" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="43.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -10473,13 +8483,13 @@
       <c r="H62" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I62" s="101" t="s">
+      <c r="I62" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="J62" s="105" t="s">
+      <c r="J62" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K62" s="102"/>
+      <c r="K62" s="87"/>
       <c r="L62" s="32" t="s">
         <v>120</v>
       </c>
@@ -10492,10 +8502,10 @@
       </c>
       <c r="P62" s="57"/>
       <c r="Q62" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R62" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S62" s="44"/>
       <c r="T62" s="43"/>
@@ -10511,7 +8521,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -10522,13 +8532,13 @@
       <c r="H63" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I63" s="101" t="s">
+      <c r="I63" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="J63" s="105" t="s">
+      <c r="J63" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="102"/>
+      <c r="K63" s="87"/>
       <c r="L63" s="32" t="s">
         <v>120</v>
       </c>
@@ -10541,10 +8551,10 @@
       </c>
       <c r="P63" s="57"/>
       <c r="Q63" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R63" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S63" s="44"/>
       <c r="T63" s="43"/>
@@ -10557,10 +8567,10 @@
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
       <c r="AA63" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" ht="94.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="94.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -10571,13 +8581,13 @@
       <c r="H64" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I64" s="101" t="s">
+      <c r="I64" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="J64" s="105" t="s">
+      <c r="J64" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K64" s="102"/>
+      <c r="K64" s="87"/>
       <c r="L64" s="32" t="s">
         <v>120</v>
       </c>
@@ -10590,10 +8600,10 @@
       </c>
       <c r="P64" s="57"/>
       <c r="Q64" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R64" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S64" s="44"/>
       <c r="T64" s="43"/>
@@ -10606,10 +8616,10 @@
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
       <c r="AA64" s="48" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="94.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -10622,13 +8632,13 @@
       <c r="H65" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="I65" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="J65" s="105" t="s">
-        <v>383</v>
-      </c>
-      <c r="K65" s="102"/>
+      <c r="I65" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K65" s="87"/>
       <c r="L65" s="32" t="s">
         <v>120</v>
       </c>
@@ -10648,9 +8658,11 @@
       <c r="X65" s="43"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
-      <c r="AA65" s="48"/>
-    </row>
-    <row r="66" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="AA65" s="48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -10661,13 +8673,13 @@
       <c r="H66" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I66" s="101" t="s">
-        <v>377</v>
-      </c>
-      <c r="J66" s="105" t="s">
+      <c r="I66" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="J66" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="102"/>
+      <c r="K66" s="87"/>
       <c r="L66" s="32" t="s">
         <v>120</v>
       </c>
@@ -10682,10 +8694,10 @@
       </c>
       <c r="P66" s="57"/>
       <c r="Q66" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R66" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S66" s="44"/>
       <c r="T66" s="43"/>
@@ -10698,10 +8710,10 @@
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
       <c r="AA66" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="69.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -10714,13 +8726,13 @@
       <c r="H67" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I67" s="105" t="s">
-        <v>437</v>
-      </c>
-      <c r="J67" s="105" t="s">
-        <v>383</v>
-      </c>
-      <c r="K67" s="102"/>
+      <c r="I67" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K67" s="87"/>
       <c r="L67" s="32" t="s">
         <v>120</v>
       </c>
@@ -10742,7 +8754,7 @@
       <c r="Z67" s="43"/>
       <c r="AA67" s="33"/>
     </row>
-    <row r="68" spans="1:27" ht="168.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="168.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -10753,13 +8765,13 @@
       <c r="H68" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I68" s="101" t="s">
+      <c r="I68" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="J68" s="105" t="s">
+      <c r="J68" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K68" s="102"/>
+      <c r="K68" s="87"/>
       <c r="L68" s="32" t="s">
         <v>120</v>
       </c>
@@ -10772,10 +8784,10 @@
       </c>
       <c r="P68" s="57"/>
       <c r="Q68" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R68" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S68" s="44"/>
       <c r="T68" s="43"/>
@@ -10788,10 +8800,10 @@
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
       <c r="AA68" s="33" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -10802,14 +8814,14 @@
       <c r="H69" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I69" s="68" t="s">
+      <c r="I69" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="J69" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="K69" s="74" t="s">
-        <v>427</v>
+      <c r="J69" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="K69" s="70" t="s">
+        <v>426</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>120</v>
@@ -10821,12 +8833,12 @@
       <c r="O69" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="P69" s="69"/>
+      <c r="P69" s="57"/>
       <c r="Q69" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R69" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S69" s="44"/>
       <c r="T69" s="43"/>
@@ -10837,7 +8849,7 @@
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
       <c r="AA69" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:27" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10853,18 +8865,18 @@
       <c r="H70" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I70" s="106" t="s">
-        <v>441</v>
-      </c>
-      <c r="J70" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="K70" s="107"/>
+      <c r="I70" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="J70" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="K70" s="91"/>
       <c r="L70" s="32"/>
       <c r="M70" s="33"/>
       <c r="N70" s="33"/>
       <c r="O70" s="33"/>
-      <c r="P70" s="69"/>
+      <c r="P70" s="57"/>
       <c r="Q70" s="48"/>
       <c r="R70" s="49"/>
       <c r="S70" s="44"/>
@@ -10877,9 +8889,11 @@
       <c r="X70" s="43"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
-      <c r="AA70" s="48"/>
-    </row>
-    <row r="71" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA70" s="48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -10890,13 +8904,13 @@
       <c r="H71" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I71" s="101" t="s">
+      <c r="I71" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="J71" s="105" t="s">
+      <c r="J71" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K71" s="102"/>
+      <c r="K71" s="87"/>
       <c r="L71" s="32" t="s">
         <v>120</v>
       </c>
@@ -10909,10 +8923,10 @@
       </c>
       <c r="P71" s="57"/>
       <c r="Q71" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R71" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S71" s="44"/>
       <c r="T71" s="43"/>
@@ -10925,10 +8939,10 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
       <c r="AA71" s="33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="89" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -10941,14 +8955,14 @@
       <c r="H72" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="I72" s="101" t="s">
+      <c r="I72" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="J72" s="105" t="s">
-        <v>383</v>
-      </c>
-      <c r="K72" s="102" t="s">
-        <v>438</v>
+      <c r="J72" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="K72" s="87" t="s">
+        <v>437</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>120</v>
@@ -10964,10 +8978,10 @@
         <v>206</v>
       </c>
       <c r="Q72" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R72" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S72" s="44"/>
       <c r="T72" s="43"/>
@@ -10980,49 +8994,49 @@
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
       <c r="AA72" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" s="78" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="74" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="51"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="71" t="s">
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="71" t="s">
-        <v>387</v>
-      </c>
-      <c r="J73" s="71" t="s">
+      <c r="I73" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="J73" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="K73" s="71" t="s">
-        <v>414</v>
-      </c>
-      <c r="L73" s="71" t="s">
+      <c r="K73" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="L73" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="68"/>
-      <c r="V73" s="68"/>
-      <c r="W73" s="68"/>
-      <c r="X73" s="68"/>
-      <c r="Y73" s="68"/>
-      <c r="Z73" s="68"/>
-      <c r="AA73" s="68"/>
-    </row>
-    <row r="74" spans="1:27" ht="50" x14ac:dyDescent="0.25">
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+    </row>
+    <row r="74" spans="1:27" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -11030,16 +9044,16 @@
       <c r="E74" s="43"/>
       <c r="F74" s="43"/>
       <c r="G74" s="32"/>
-      <c r="H74" s="68" t="s">
+      <c r="H74" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I74" s="68" t="s">
-        <v>424</v>
-      </c>
-      <c r="J74" s="68" t="s">
+      <c r="I74" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="J74" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K74" s="68"/>
+      <c r="K74" s="33"/>
       <c r="L74" s="32" t="s">
         <v>120</v>
       </c>
@@ -11061,7 +9075,7 @@
       <c r="Z74" s="43"/>
       <c r="AA74" s="33"/>
     </row>
-    <row r="75" spans="1:27" ht="25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -11069,19 +9083,19 @@
       <c r="E75" s="43"/>
       <c r="F75" s="43"/>
       <c r="G75" s="43"/>
-      <c r="H75" s="76" t="s">
+      <c r="H75" s="72" t="s">
         <v>65</v>
       </c>
       <c r="I75" s="48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J75" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="K75" s="95">
+        <v>372</v>
+      </c>
+      <c r="K75" s="85">
         <v>45623</v>
       </c>
-      <c r="L75" s="77"/>
+      <c r="L75" s="73"/>
       <c r="M75" s="33"/>
       <c r="N75" s="33"/>
       <c r="O75" s="33"/>
@@ -11098,7 +9112,7 @@
       <c r="Z75" s="43"/>
       <c r="AA75" s="33"/>
     </row>
-    <row r="76" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -11109,16 +9123,16 @@
         <v>35</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I76" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="J76" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="K76" s="33" t="s">
         <v>439</v>
-      </c>
-      <c r="J76" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="K76" s="68" t="s">
-        <v>440</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>120</v>
@@ -11151,8 +9165,8 @@
       <c r="G77" s="32"/>
       <c r="H77" s="46"/>
       <c r="I77" s="33"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="68"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
       <c r="L77" s="32"/>
       <c r="M77" s="33"/>
       <c r="N77" s="33"/>
@@ -11180,8 +9194,8 @@
       <c r="G78" s="32"/>
       <c r="H78" s="46"/>
       <c r="I78" s="33"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
       <c r="L78" s="32"/>
       <c r="M78" s="33"/>
       <c r="N78" s="33"/>
@@ -11209,8 +9223,8 @@
       <c r="G79" s="32"/>
       <c r="H79" s="46"/>
       <c r="I79" s="33"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
       <c r="L79" s="32"/>
       <c r="M79" s="33"/>
       <c r="N79" s="33"/>
@@ -11238,8 +9252,8 @@
       <c r="G80" s="32"/>
       <c r="H80" s="46"/>
       <c r="I80" s="33"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
       <c r="L80" s="32"/>
       <c r="M80" s="33"/>
       <c r="N80" s="33"/>
@@ -11267,8 +9281,8 @@
       <c r="G81" s="32"/>
       <c r="H81" s="46"/>
       <c r="I81" s="33"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
       <c r="L81" s="32"/>
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
@@ -11296,8 +9310,8 @@
       <c r="G82" s="32"/>
       <c r="H82" s="46"/>
       <c r="I82" s="33"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
       <c r="L82" s="32"/>
       <c r="M82" s="33"/>
       <c r="N82" s="33"/>
@@ -11325,8 +9339,8 @@
       <c r="G83" s="32"/>
       <c r="H83" s="46"/>
       <c r="I83" s="33"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
       <c r="L83" s="32"/>
       <c r="M83" s="33"/>
       <c r="N83" s="33"/>
@@ -11354,8 +9368,8 @@
       <c r="G84" s="32"/>
       <c r="H84" s="46"/>
       <c r="I84" s="33"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
       <c r="L84" s="32"/>
       <c r="M84" s="33"/>
       <c r="N84" s="33"/>
@@ -11383,8 +9397,8 @@
       <c r="G85" s="32"/>
       <c r="H85" s="46"/>
       <c r="I85" s="33"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
       <c r="L85" s="32"/>
       <c r="M85" s="33"/>
       <c r="N85" s="33"/>
@@ -11412,8 +9426,8 @@
       <c r="G86" s="32"/>
       <c r="H86" s="46"/>
       <c r="I86" s="33"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
       <c r="L86" s="32"/>
       <c r="M86" s="33"/>
       <c r="N86" s="33"/>
@@ -11441,8 +9455,8 @@
       <c r="G87" s="32"/>
       <c r="H87" s="46"/>
       <c r="I87" s="33"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
       <c r="L87" s="32"/>
       <c r="M87" s="33"/>
       <c r="N87" s="33"/>
@@ -11470,8 +9484,8 @@
       <c r="G88" s="32"/>
       <c r="H88" s="46"/>
       <c r="I88" s="33"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
       <c r="L88" s="32"/>
       <c r="M88" s="33"/>
       <c r="N88" s="33"/>
@@ -11499,8 +9513,8 @@
       <c r="G89" s="32"/>
       <c r="H89" s="46"/>
       <c r="I89" s="33"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="68"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
       <c r="L89" s="32"/>
       <c r="M89" s="33"/>
       <c r="N89" s="33"/>
@@ -11528,8 +9542,8 @@
       <c r="G90" s="32"/>
       <c r="H90" s="46"/>
       <c r="I90" s="33"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="68"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
       <c r="L90" s="32"/>
       <c r="M90" s="33"/>
       <c r="N90" s="33"/>
@@ -11557,8 +9571,8 @@
       <c r="G91" s="32"/>
       <c r="H91" s="46"/>
       <c r="I91" s="33"/>
-      <c r="J91" s="68"/>
-      <c r="K91" s="68"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
       <c r="L91" s="32"/>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -11586,8 +9600,8 @@
       <c r="G92" s="32"/>
       <c r="H92" s="46"/>
       <c r="I92" s="33"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
       <c r="L92" s="32"/>
       <c r="M92" s="33"/>
       <c r="N92" s="33"/>
@@ -11615,8 +9629,8 @@
       <c r="G93" s="32"/>
       <c r="H93" s="46"/>
       <c r="I93" s="33"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
       <c r="L93" s="32"/>
       <c r="M93" s="33"/>
       <c r="N93" s="33"/>
@@ -11644,8 +9658,8 @@
       <c r="G94" s="32"/>
       <c r="H94" s="46"/>
       <c r="I94" s="33"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="68"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
       <c r="L94" s="32"/>
       <c r="M94" s="33"/>
       <c r="N94" s="33"/>
@@ -11673,8 +9687,8 @@
       <c r="G95" s="32"/>
       <c r="H95" s="46"/>
       <c r="I95" s="33"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="68"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
       <c r="L95" s="32"/>
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
@@ -11702,8 +9716,8 @@
       <c r="G96" s="32"/>
       <c r="H96" s="46"/>
       <c r="I96" s="33"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="68"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
       <c r="L96" s="32"/>
       <c r="M96" s="33"/>
       <c r="N96" s="33"/>
@@ -11731,8 +9745,8 @@
       <c r="G97" s="32"/>
       <c r="H97" s="46"/>
       <c r="I97" s="33"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="68"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
       <c r="L97" s="32"/>
       <c r="M97" s="33"/>
       <c r="N97" s="33"/>
@@ -11760,8 +9774,8 @@
       <c r="G98" s="32"/>
       <c r="H98" s="46"/>
       <c r="I98" s="33"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="68"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
       <c r="L98" s="32"/>
       <c r="M98" s="33"/>
       <c r="N98" s="33"/>
@@ -11789,8 +9803,8 @@
       <c r="G99" s="32"/>
       <c r="H99" s="46"/>
       <c r="I99" s="33"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="68"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
       <c r="L99" s="32"/>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
@@ -11818,8 +9832,8 @@
       <c r="G100" s="32"/>
       <c r="H100" s="46"/>
       <c r="I100" s="33"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="68"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
       <c r="L100" s="32"/>
       <c r="M100" s="33"/>
       <c r="N100" s="33"/>
@@ -11847,8 +9861,8 @@
       <c r="G101" s="32"/>
       <c r="H101" s="46"/>
       <c r="I101" s="33"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="68"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
       <c r="L101" s="32"/>
       <c r="M101" s="33"/>
       <c r="N101" s="33"/>
@@ -11876,8 +9890,8 @@
       <c r="G102" s="32"/>
       <c r="H102" s="46"/>
       <c r="I102" s="33"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
       <c r="L102" s="32"/>
       <c r="M102" s="33"/>
       <c r="N102" s="33"/>
@@ -11905,8 +9919,8 @@
       <c r="G103" s="32"/>
       <c r="H103" s="46"/>
       <c r="I103" s="33"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="68"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
       <c r="L103" s="32"/>
       <c r="M103" s="33"/>
       <c r="N103" s="33"/>
@@ -11934,8 +9948,8 @@
       <c r="G104" s="32"/>
       <c r="H104" s="46"/>
       <c r="I104" s="33"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="68"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
       <c r="L104" s="32"/>
       <c r="M104" s="33"/>
       <c r="N104" s="33"/>
@@ -11963,8 +9977,8 @@
       <c r="G105" s="32"/>
       <c r="H105" s="46"/>
       <c r="I105" s="33"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="68"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
       <c r="L105" s="32"/>
       <c r="M105" s="33"/>
       <c r="N105" s="33"/>
@@ -11992,8 +10006,8 @@
       <c r="G106" s="32"/>
       <c r="H106" s="46"/>
       <c r="I106" s="33"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="68"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="33"/>
       <c r="L106" s="32"/>
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
@@ -12021,8 +10035,8 @@
       <c r="G107" s="32"/>
       <c r="H107" s="46"/>
       <c r="I107" s="33"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="68"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
       <c r="L107" s="32"/>
       <c r="M107" s="33"/>
       <c r="N107" s="33"/>
@@ -12050,8 +10064,8 @@
       <c r="G108" s="32"/>
       <c r="H108" s="46"/>
       <c r="I108" s="33"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="68"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
       <c r="L108" s="32"/>
       <c r="M108" s="33"/>
       <c r="N108" s="33"/>
@@ -12079,8 +10093,8 @@
       <c r="G109" s="32"/>
       <c r="H109" s="46"/>
       <c r="I109" s="33"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="68"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
       <c r="L109" s="32"/>
       <c r="M109" s="33"/>
       <c r="N109" s="33"/>
@@ -12108,8 +10122,8 @@
       <c r="G110" s="32"/>
       <c r="H110" s="46"/>
       <c r="I110" s="33"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="68"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="33"/>
       <c r="L110" s="32"/>
       <c r="M110" s="33"/>
       <c r="N110" s="33"/>
@@ -12137,8 +10151,8 @@
       <c r="G111" s="32"/>
       <c r="H111" s="46"/>
       <c r="I111" s="33"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="33"/>
       <c r="L111" s="32"/>
       <c r="M111" s="33"/>
       <c r="N111" s="33"/>
@@ -12166,8 +10180,8 @@
       <c r="G112" s="32"/>
       <c r="H112" s="46"/>
       <c r="I112" s="33"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="68"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
       <c r="L112" s="32"/>
       <c r="M112" s="33"/>
       <c r="N112" s="33"/>
@@ -12195,8 +10209,8 @@
       <c r="G113" s="32"/>
       <c r="H113" s="46"/>
       <c r="I113" s="33"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="68"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
       <c r="L113" s="32"/>
       <c r="M113" s="33"/>
       <c r="N113" s="33"/>
@@ -12224,8 +10238,8 @@
       <c r="G114" s="32"/>
       <c r="H114" s="46"/>
       <c r="I114" s="33"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
       <c r="L114" s="32"/>
       <c r="M114" s="33"/>
       <c r="N114" s="33"/>
@@ -12253,8 +10267,8 @@
       <c r="G115" s="32"/>
       <c r="H115" s="46"/>
       <c r="I115" s="33"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="68"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="33"/>
       <c r="L115" s="32"/>
       <c r="M115" s="33"/>
       <c r="N115" s="33"/>
@@ -12282,8 +10296,8 @@
       <c r="G116" s="32"/>
       <c r="H116" s="46"/>
       <c r="I116" s="33"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="68"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
       <c r="L116" s="32"/>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
@@ -12311,8 +10325,8 @@
       <c r="G117" s="32"/>
       <c r="H117" s="46"/>
       <c r="I117" s="33"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="68"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
       <c r="L117" s="32"/>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
@@ -12340,8 +10354,8 @@
       <c r="G118" s="32"/>
       <c r="H118" s="46"/>
       <c r="I118" s="33"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="68"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
       <c r="L118" s="32"/>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
@@ -12369,8 +10383,8 @@
       <c r="G119" s="32"/>
       <c r="H119" s="46"/>
       <c r="I119" s="33"/>
-      <c r="J119" s="68"/>
-      <c r="K119" s="68"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
       <c r="L119" s="32"/>
       <c r="M119" s="33"/>
       <c r="N119" s="33"/>
@@ -12398,8 +10412,8 @@
       <c r="G120" s="32"/>
       <c r="H120" s="46"/>
       <c r="I120" s="33"/>
-      <c r="J120" s="68"/>
-      <c r="K120" s="68"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
       <c r="L120" s="32"/>
       <c r="M120" s="33"/>
       <c r="N120" s="33"/>
@@ -12427,8 +10441,8 @@
       <c r="G121" s="32"/>
       <c r="H121" s="46"/>
       <c r="I121" s="33"/>
-      <c r="J121" s="68"/>
-      <c r="K121" s="68"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
       <c r="L121" s="32"/>
       <c r="M121" s="33"/>
       <c r="N121" s="33"/>
@@ -12456,8 +10470,8 @@
       <c r="G122" s="32"/>
       <c r="H122" s="46"/>
       <c r="I122" s="33"/>
-      <c r="J122" s="68"/>
-      <c r="K122" s="68"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="33"/>
       <c r="L122" s="32"/>
       <c r="M122" s="33"/>
       <c r="N122" s="33"/>
@@ -12485,8 +10499,8 @@
       <c r="G123" s="32"/>
       <c r="H123" s="46"/>
       <c r="I123" s="33"/>
-      <c r="J123" s="68"/>
-      <c r="K123" s="68"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
       <c r="L123" s="32"/>
       <c r="M123" s="33"/>
       <c r="N123" s="33"/>
@@ -12514,8 +10528,8 @@
       <c r="G124" s="32"/>
       <c r="H124" s="46"/>
       <c r="I124" s="33"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
       <c r="L124" s="32"/>
       <c r="M124" s="33"/>
       <c r="N124" s="33"/>
@@ -12543,8 +10557,8 @@
       <c r="G125" s="32"/>
       <c r="H125" s="46"/>
       <c r="I125" s="33"/>
-      <c r="J125" s="68"/>
-      <c r="K125" s="68"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
       <c r="L125" s="32"/>
       <c r="M125" s="33"/>
       <c r="N125" s="33"/>
@@ -12572,8 +10586,8 @@
       <c r="G126" s="32"/>
       <c r="H126" s="46"/>
       <c r="I126" s="33"/>
-      <c r="J126" s="68"/>
-      <c r="K126" s="68"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
       <c r="L126" s="32"/>
       <c r="M126" s="33"/>
       <c r="N126" s="33"/>
@@ -12601,8 +10615,8 @@
       <c r="G127" s="32"/>
       <c r="H127" s="46"/>
       <c r="I127" s="33"/>
-      <c r="J127" s="68"/>
-      <c r="K127" s="68"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
       <c r="L127" s="32"/>
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
@@ -12630,8 +10644,8 @@
       <c r="G128" s="32"/>
       <c r="H128" s="46"/>
       <c r="I128" s="33"/>
-      <c r="J128" s="68"/>
-      <c r="K128" s="68"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
       <c r="L128" s="32"/>
       <c r="M128" s="33"/>
       <c r="N128" s="33"/>
@@ -12659,8 +10673,8 @@
       <c r="G129" s="32"/>
       <c r="H129" s="46"/>
       <c r="I129" s="32"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="72"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
       <c r="L129" s="32"/>
       <c r="M129" s="33"/>
       <c r="N129" s="33"/>
@@ -12688,8 +10702,8 @@
       <c r="G130" s="32"/>
       <c r="H130" s="46"/>
       <c r="I130" s="32"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="72"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
       <c r="L130" s="32"/>
       <c r="M130" s="33"/>
       <c r="N130" s="33"/>
@@ -12717,8 +10731,8 @@
       <c r="G131" s="32"/>
       <c r="H131" s="46"/>
       <c r="I131" s="32"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
       <c r="L131" s="32"/>
       <c r="M131" s="33"/>
       <c r="N131" s="33"/>
@@ -12746,8 +10760,8 @@
       <c r="G132" s="32"/>
       <c r="H132" s="46"/>
       <c r="I132" s="32"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32"/>
       <c r="L132" s="32"/>
       <c r="M132" s="33"/>
       <c r="N132" s="33"/>
@@ -12775,8 +10789,8 @@
       <c r="G133" s="32"/>
       <c r="H133" s="46"/>
       <c r="I133" s="32"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
+      <c r="J133" s="32"/>
+      <c r="K133" s="32"/>
       <c r="L133" s="32"/>
       <c r="M133" s="33"/>
       <c r="N133" s="33"/>
@@ -12804,8 +10818,8 @@
       <c r="G134" s="32"/>
       <c r="H134" s="46"/>
       <c r="I134" s="32"/>
-      <c r="J134" s="72"/>
-      <c r="K134" s="72"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
       <c r="L134" s="32"/>
       <c r="M134" s="33"/>
       <c r="N134" s="33"/>
@@ -12833,8 +10847,8 @@
       <c r="G135" s="32"/>
       <c r="H135" s="46"/>
       <c r="I135" s="32"/>
-      <c r="J135" s="72"/>
-      <c r="K135" s="72"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
       <c r="L135" s="32"/>
       <c r="M135" s="33"/>
       <c r="N135" s="33"/>
@@ -12862,8 +10876,8 @@
       <c r="G136" s="32"/>
       <c r="H136" s="46"/>
       <c r="I136" s="32"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
       <c r="L136" s="32"/>
       <c r="M136" s="33"/>
       <c r="N136" s="33"/>
@@ -12891,8 +10905,8 @@
       <c r="G137" s="32"/>
       <c r="H137" s="46"/>
       <c r="I137" s="32"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="72"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
       <c r="L137" s="32"/>
       <c r="M137" s="33"/>
       <c r="N137" s="33"/>
@@ -12920,8 +10934,8 @@
       <c r="G138" s="32"/>
       <c r="H138" s="46"/>
       <c r="I138" s="32"/>
-      <c r="J138" s="72"/>
-      <c r="K138" s="72"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
       <c r="L138" s="32"/>
       <c r="M138" s="33"/>
       <c r="N138" s="33"/>
@@ -12949,8 +10963,8 @@
       <c r="G139" s="32"/>
       <c r="H139" s="46"/>
       <c r="I139" s="32"/>
-      <c r="J139" s="72"/>
-      <c r="K139" s="72"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
       <c r="L139" s="32"/>
       <c r="M139" s="33"/>
       <c r="N139" s="33"/>
@@ -12978,8 +10992,8 @@
       <c r="G140" s="32"/>
       <c r="H140" s="46"/>
       <c r="I140" s="32"/>
-      <c r="J140" s="72"/>
-      <c r="K140" s="72"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32"/>
       <c r="L140" s="32"/>
       <c r="M140" s="33"/>
       <c r="N140" s="33"/>
@@ -13007,8 +11021,8 @@
       <c r="G141" s="32"/>
       <c r="H141" s="46"/>
       <c r="I141" s="32"/>
-      <c r="J141" s="72"/>
-      <c r="K141" s="72"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32"/>
       <c r="L141" s="32"/>
       <c r="M141" s="33"/>
       <c r="N141" s="33"/>
@@ -13036,8 +11050,8 @@
       <c r="G142" s="32"/>
       <c r="H142" s="46"/>
       <c r="I142" s="32"/>
-      <c r="J142" s="72"/>
-      <c r="K142" s="72"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
       <c r="L142" s="32"/>
       <c r="M142" s="33"/>
       <c r="N142" s="33"/>
@@ -13065,8 +11079,8 @@
       <c r="G143" s="32"/>
       <c r="H143" s="46"/>
       <c r="I143" s="32"/>
-      <c r="J143" s="72"/>
-      <c r="K143" s="72"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32"/>
       <c r="L143" s="32"/>
       <c r="M143" s="33"/>
       <c r="N143" s="33"/>
@@ -13094,8 +11108,8 @@
       <c r="G144" s="32"/>
       <c r="H144" s="46"/>
       <c r="I144" s="32"/>
-      <c r="J144" s="72"/>
-      <c r="K144" s="72"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
       <c r="L144" s="32"/>
       <c r="M144" s="33"/>
       <c r="N144" s="33"/>
@@ -13123,8 +11137,8 @@
       <c r="G145" s="32"/>
       <c r="H145" s="46"/>
       <c r="I145" s="32"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="32"/>
       <c r="L145" s="32"/>
       <c r="M145" s="33"/>
       <c r="N145" s="33"/>
@@ -13152,8 +11166,8 @@
       <c r="G146" s="32"/>
       <c r="H146" s="46"/>
       <c r="I146" s="32"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32"/>
       <c r="L146" s="32"/>
       <c r="M146" s="33"/>
       <c r="N146" s="33"/>
@@ -13181,8 +11195,8 @@
       <c r="G147" s="32"/>
       <c r="H147" s="46"/>
       <c r="I147" s="32"/>
-      <c r="J147" s="72"/>
-      <c r="K147" s="72"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
       <c r="L147" s="32"/>
       <c r="M147" s="33"/>
       <c r="N147" s="33"/>
@@ -13210,8 +11224,8 @@
       <c r="G148" s="32"/>
       <c r="H148" s="46"/>
       <c r="I148" s="32"/>
-      <c r="J148" s="72"/>
-      <c r="K148" s="72"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32"/>
       <c r="L148" s="32"/>
       <c r="M148" s="33"/>
       <c r="N148" s="33"/>
@@ -13239,8 +11253,8 @@
       <c r="G149" s="32"/>
       <c r="H149" s="46"/>
       <c r="I149" s="32"/>
-      <c r="J149" s="72"/>
-      <c r="K149" s="72"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32"/>
       <c r="L149" s="32"/>
       <c r="M149" s="33"/>
       <c r="N149" s="33"/>
@@ -13268,8 +11282,8 @@
       <c r="G150" s="32"/>
       <c r="H150" s="46"/>
       <c r="I150" s="32"/>
-      <c r="J150" s="72"/>
-      <c r="K150" s="72"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
       <c r="L150" s="32"/>
       <c r="M150" s="33"/>
       <c r="N150" s="33"/>
@@ -13297,8 +11311,8 @@
       <c r="G151" s="32"/>
       <c r="H151" s="46"/>
       <c r="I151" s="32"/>
-      <c r="J151" s="72"/>
-      <c r="K151" s="72"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32"/>
       <c r="L151" s="32"/>
       <c r="M151" s="33"/>
       <c r="N151" s="33"/>
@@ -13326,8 +11340,8 @@
       <c r="G152" s="32"/>
       <c r="H152" s="46"/>
       <c r="I152" s="32"/>
-      <c r="J152" s="72"/>
-      <c r="K152" s="72"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
       <c r="L152" s="32"/>
       <c r="M152" s="33"/>
       <c r="N152" s="33"/>
@@ -13355,8 +11369,8 @@
       <c r="G153" s="32"/>
       <c r="H153" s="46"/>
       <c r="I153" s="32"/>
-      <c r="J153" s="72"/>
-      <c r="K153" s="72"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="32"/>
       <c r="L153" s="32"/>
       <c r="M153" s="33"/>
       <c r="N153" s="33"/>
@@ -13384,8 +11398,8 @@
       <c r="G154" s="32"/>
       <c r="H154" s="46"/>
       <c r="I154" s="32"/>
-      <c r="J154" s="72"/>
-      <c r="K154" s="72"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="32"/>
       <c r="L154" s="32"/>
       <c r="M154" s="33"/>
       <c r="N154" s="33"/>
@@ -13413,8 +11427,8 @@
       <c r="G155" s="32"/>
       <c r="H155" s="46"/>
       <c r="I155" s="32"/>
-      <c r="J155" s="72"/>
-      <c r="K155" s="72"/>
+      <c r="J155" s="32"/>
+      <c r="K155" s="32"/>
       <c r="L155" s="32"/>
       <c r="M155" s="33"/>
       <c r="N155" s="33"/>
@@ -13442,8 +11456,8 @@
       <c r="G156" s="32"/>
       <c r="H156" s="46"/>
       <c r="I156" s="32"/>
-      <c r="J156" s="72"/>
-      <c r="K156" s="72"/>
+      <c r="J156" s="32"/>
+      <c r="K156" s="32"/>
       <c r="L156" s="32"/>
       <c r="M156" s="33"/>
       <c r="N156" s="33"/>
@@ -13471,8 +11485,8 @@
       <c r="G157" s="32"/>
       <c r="H157" s="46"/>
       <c r="I157" s="32"/>
-      <c r="J157" s="72"/>
-      <c r="K157" s="72"/>
+      <c r="J157" s="32"/>
+      <c r="K157" s="32"/>
       <c r="L157" s="32"/>
       <c r="M157" s="33"/>
       <c r="N157" s="33"/>
@@ -13500,8 +11514,8 @@
       <c r="G158" s="32"/>
       <c r="H158" s="46"/>
       <c r="I158" s="32"/>
-      <c r="J158" s="72"/>
-      <c r="K158" s="72"/>
+      <c r="J158" s="32"/>
+      <c r="K158" s="32"/>
       <c r="L158" s="32"/>
       <c r="M158" s="33"/>
       <c r="N158" s="33"/>
@@ -13529,8 +11543,8 @@
       <c r="G159" s="32"/>
       <c r="H159" s="46"/>
       <c r="I159" s="32"/>
-      <c r="J159" s="72"/>
-      <c r="K159" s="72"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32"/>
       <c r="L159" s="32"/>
       <c r="M159" s="33"/>
       <c r="N159" s="33"/>
@@ -13558,8 +11572,8 @@
       <c r="G160" s="32"/>
       <c r="H160" s="46"/>
       <c r="I160" s="32"/>
-      <c r="J160" s="72"/>
-      <c r="K160" s="72"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32"/>
       <c r="L160" s="32"/>
       <c r="M160" s="33"/>
       <c r="N160" s="33"/>
@@ -13587,8 +11601,8 @@
       <c r="G161" s="32"/>
       <c r="H161" s="46"/>
       <c r="I161" s="32"/>
-      <c r="J161" s="72"/>
-      <c r="K161" s="72"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="32"/>
       <c r="L161" s="32"/>
       <c r="M161" s="33"/>
       <c r="N161" s="33"/>
@@ -13616,8 +11630,8 @@
       <c r="G162" s="32"/>
       <c r="H162" s="46"/>
       <c r="I162" s="32"/>
-      <c r="J162" s="72"/>
-      <c r="K162" s="72"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32"/>
       <c r="L162" s="32"/>
       <c r="M162" s="33"/>
       <c r="N162" s="33"/>
@@ -13645,8 +11659,8 @@
       <c r="G163" s="32"/>
       <c r="H163" s="46"/>
       <c r="I163" s="32"/>
-      <c r="J163" s="72"/>
-      <c r="K163" s="72"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32"/>
       <c r="L163" s="32"/>
       <c r="M163" s="33"/>
       <c r="N163" s="33"/>
@@ -13674,8 +11688,8 @@
       <c r="G164" s="32"/>
       <c r="H164" s="46"/>
       <c r="I164" s="32"/>
-      <c r="J164" s="72"/>
-      <c r="K164" s="72"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="32"/>
       <c r="L164" s="32"/>
       <c r="M164" s="33"/>
       <c r="N164" s="33"/>
@@ -13703,8 +11717,8 @@
       <c r="G165" s="32"/>
       <c r="H165" s="46"/>
       <c r="I165" s="32"/>
-      <c r="J165" s="72"/>
-      <c r="K165" s="72"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32"/>
       <c r="L165" s="32"/>
       <c r="M165" s="33"/>
       <c r="N165" s="33"/>
@@ -13732,8 +11746,8 @@
       <c r="G166" s="32"/>
       <c r="H166" s="46"/>
       <c r="I166" s="32"/>
-      <c r="J166" s="72"/>
-      <c r="K166" s="72"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="32"/>
       <c r="L166" s="32"/>
       <c r="M166" s="33"/>
       <c r="N166" s="33"/>
@@ -13761,8 +11775,8 @@
       <c r="G167" s="32"/>
       <c r="H167" s="46"/>
       <c r="I167" s="32"/>
-      <c r="J167" s="72"/>
-      <c r="K167" s="72"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
       <c r="L167" s="32"/>
       <c r="M167" s="33"/>
       <c r="N167" s="33"/>
@@ -13790,8 +11804,8 @@
       <c r="G168" s="32"/>
       <c r="H168" s="46"/>
       <c r="I168" s="32"/>
-      <c r="J168" s="72"/>
-      <c r="K168" s="72"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="32"/>
       <c r="L168" s="32"/>
       <c r="M168" s="33"/>
       <c r="N168" s="33"/>
@@ -13819,8 +11833,8 @@
       <c r="G169" s="32"/>
       <c r="H169" s="46"/>
       <c r="I169" s="32"/>
-      <c r="J169" s="72"/>
-      <c r="K169" s="72"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="32"/>
       <c r="L169" s="32"/>
       <c r="M169" s="33"/>
       <c r="N169" s="33"/>
@@ -13848,8 +11862,8 @@
       <c r="G170" s="32"/>
       <c r="H170" s="46"/>
       <c r="I170" s="32"/>
-      <c r="J170" s="72"/>
-      <c r="K170" s="72"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="32"/>
       <c r="L170" s="32"/>
       <c r="M170" s="33"/>
       <c r="N170" s="33"/>
@@ -13877,8 +11891,8 @@
       <c r="G171" s="32"/>
       <c r="H171" s="46"/>
       <c r="I171" s="32"/>
-      <c r="J171" s="72"/>
-      <c r="K171" s="72"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32"/>
       <c r="L171" s="32"/>
       <c r="M171" s="33"/>
       <c r="N171" s="33"/>
@@ -13906,8 +11920,8 @@
       <c r="G172" s="32"/>
       <c r="H172" s="46"/>
       <c r="I172" s="32"/>
-      <c r="J172" s="72"/>
-      <c r="K172" s="72"/>
+      <c r="J172" s="32"/>
+      <c r="K172" s="32"/>
       <c r="L172" s="32"/>
       <c r="M172" s="33"/>
       <c r="N172" s="33"/>
@@ -13926,7 +11940,18 @@
       <c r="AA172" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:AA76"/>
+  <autoFilter ref="G1:AA76" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Fail"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13941,7 +11966,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'C:\Users\ZHOU~1.BIQ\AppData\Local\Temp\[STR(EM) App B - Test Status Report.xlsx-rev717946.svn000.tmp.xlsx]Drop down list'!#REF!</xm:f>
           </x14:formula1>
@@ -13954,20 +11979,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="54"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="66.453125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="17.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="54"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="66.44140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -13981,21 +12006,21 @@
         <v>229</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>230</v>
       </c>
@@ -14003,10 +12028,10 @@
         <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14014,15 +12039,15 @@
         <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -14030,10 +12055,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" s="2">
         <v>20</v>
@@ -14041,10 +12066,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="2">
         <v>16</v>
@@ -14052,10 +12077,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="2">
         <v>12</v>
@@ -14063,82 +12088,82 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="2">
         <v>32000</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="2">
         <v>32000</v>
       </c>
       <c r="G13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
         <v>246</v>
       </c>
-      <c r="B15" t="s">
-        <v>247</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="2">
         <v>32000</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D18" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="53">
         <v>16</v>
@@ -14146,54 +12171,54 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
         <v>253</v>
       </c>
-      <c r="B20" t="s">
-        <v>254</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" t="s">
         <v>255</v>
-      </c>
-      <c r="G22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" s="2">
         <v>32000</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F24" s="2">
         <v>110</v>
@@ -14201,33 +12226,33 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s">
         <v>273</v>
       </c>
-      <c r="B26" t="s">
-        <v>274</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" t="s">
         <v>296</v>
       </c>
-      <c r="B28" t="s">
-        <v>297</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F28" s="53">
         <v>16</v>
@@ -14235,12 +12260,12 @@
       <c r="G28" s="62"/>
       <c r="H28" s="53"/>
     </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D29" s="62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F29" s="53">
         <v>10</v>
@@ -14248,44 +12273,44 @@
       <c r="G29" s="62"/>
       <c r="H29" s="53"/>
     </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D30" s="62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E30" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="53" t="s">
         <v>294</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>295</v>
       </c>
       <c r="G30" s="62"/>
       <c r="H30" s="53"/>
     </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D31" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E31" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="53" t="s">
         <v>294</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>295</v>
       </c>
       <c r="G31" s="62"/>
       <c r="H31" s="53"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="31">
         <v>16</v>
@@ -14297,10 +12322,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F34" s="64">
         <v>20</v>
@@ -14312,10 +12337,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F35" s="31">
         <v>10</v>
@@ -14327,10 +12352,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F36" s="65">
         <v>15</v>
@@ -14339,10 +12364,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F37" s="31">
         <v>10</v>
@@ -14354,10 +12379,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" s="31">
         <v>10</v>
@@ -14367,12 +12392,12 @@
       <c r="I38" s="31"/>
       <c r="J38" s="63"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D39" s="62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F39" s="62">
         <v>10</v>
@@ -14382,12 +12407,12 @@
       <c r="I39" s="62"/>
       <c r="J39" s="62"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D40" s="62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F40" s="62">
         <v>20</v>
@@ -14397,12 +12422,12 @@
       <c r="I40" s="62"/>
       <c r="J40" s="62"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D41" s="62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F41" s="62">
         <v>10</v>
@@ -14412,12 +12437,12 @@
       <c r="I41" s="62"/>
       <c r="J41" s="62"/>
     </row>
-    <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D42" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F42" s="62">
         <v>10</v>
@@ -14427,12 +12452,12 @@
       <c r="I42" s="62"/>
       <c r="J42" s="62"/>
     </row>
-    <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D43" s="62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F43" s="62">
         <v>3</v>
@@ -14444,10 +12469,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E44" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F44" s="31">
         <v>3</v>
@@ -14459,10 +12484,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F45" s="65">
         <v>10</v>
@@ -14471,10 +12496,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F46" s="65">
         <v>15</v>
@@ -14483,10 +12508,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E47" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F47" s="31">
         <v>3</v>
@@ -14498,10 +12523,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F48" s="2">
         <v>32000</v>
@@ -14509,85 +12534,85 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F50" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D53" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="D52" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D53" s="62" t="s">
+    </row>
+    <row r="54" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D54" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="F53" s="53" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D54" s="62" t="s">
+      <c r="E54" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" s="53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D55" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="E54" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="F54" s="53" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="D55" s="62" t="s">
-        <v>346</v>
-      </c>
       <c r="E55" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F55" s="53">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D56" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E56" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="53" t="s">
         <v>294</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
         <v>225</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F58" s="2">
         <v>8</v>
@@ -14595,13 +12620,13 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" t="s">
         <v>358</v>
       </c>
-      <c r="D60" t="s">
-        <v>359</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F60" s="2">
         <v>32000</v>
@@ -14609,13 +12634,13 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" t="s">
         <v>360</v>
       </c>
-      <c r="D62" t="s">
-        <v>361</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F62" s="2">
         <v>50</v>
@@ -14630,23 +12655,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
